--- a/data/trans_dic/P25C$otraforma_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02430096892672446</v>
+        <v>0.02430096892672445</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01060994541142472</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00760601979919292</v>
+        <v>0.007653221618121837</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006536235111469629</v>
+        <v>0.005613279954000948</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08176290434729426</v>
+        <v>0.06995866469468304</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05364110854831934</v>
+        <v>0.05401325419497727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05568414587805691</v>
+        <v>0.05047894770110782</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04280201288238792</v>
+        <v>0.04280201288238793</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03306413881159646</v>
+        <v>0.03306413881159645</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03944262243002668</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01706523377114041</v>
+        <v>0.01961519065862901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00803943779858061</v>
+        <v>0.008247516944928129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01877827708363785</v>
+        <v>0.01949617471285991</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09299671749733118</v>
+        <v>0.09327269202055136</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07862133517712611</v>
+        <v>0.07700406290040594</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06960527182201268</v>
+        <v>0.0685975275810794</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08724456095286927</v>
+        <v>0.08724456095286928</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03505734001072894</v>
+        <v>0.03505734001072896</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.06966052214832932</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05043624744270946</v>
+        <v>0.04921534445759283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008566518377451144</v>
+        <v>0.01132156462447896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04084805261471956</v>
+        <v>0.04213716055764836</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1429621906105031</v>
+        <v>0.1408749451175519</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08253072799674824</v>
+        <v>0.08225677961552269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1054149813444323</v>
+        <v>0.1048046628323364</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01509222139688341</v>
+        <v>0.01509222139688342</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02452639263190444</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0189453702628691</v>
+        <v>0.01894537026286911</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00450499455032945</v>
+        <v>0.004401920039490586</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009621363636233098</v>
+        <v>0.009555563834267412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008320090083115371</v>
+        <v>0.008419072252811938</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0424282894226812</v>
+        <v>0.04213518481672852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05947835629390767</v>
+        <v>0.05739827862079878</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0364895878592713</v>
+        <v>0.03543033117579215</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1148</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10043</v>
+        <v>8593</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2835</v>
+        <v>2855</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9783</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2918</v>
+        <v>3354</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4902</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15902</v>
+        <v>15950</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7081</v>
+        <v>6935</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18171</v>
+        <v>17908</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8299</v>
+        <v>8098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>716</v>
+        <v>947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10136</v>
+        <v>10456</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23522</v>
+        <v>23179</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6900</v>
+        <v>6877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26158</v>
+        <v>26007</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2839</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8564</v>
+        <v>8505</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8289</v>
+        <v>7999</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12451</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
     </row>
     <row r="24">
